--- a/data/processed_ground_truth/processed_offensive.xlsx
+++ b/data/processed_ground_truth/processed_offensive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1740"/>
+  <dimension ref="A1:D1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>අක්කේ ඉත්තෑවෝ දුවනවනේ ?පොඩ්ඩක් ලෙඩේ බලාගන්න ඇවිත් ඔහේ බෙහෙත් නැත්නම් එන්න දෙන්නම් ගුලියක් අබරලා ඔය ගතිය ඇරලා යයි...එතකොට ඔයා අවුරුදු 25 කියලා ඉන්න 50 වෙච්ච එකෙක් වද බැන්දේ ? අර්ශශ් නම් බෙහෙත් අර ගන්න නැත්නම් හෙට හෙණ ගේමක් දෙන්න වෙයි...ඒක තමයි කියන්නෙ අවුරුදු 25 වගේ පේණ වදුරොත් එක්ක හු$&amp;@ එපා කියන්නේ...මේ අක්කේ ගැට අන්නාසි තියනවා දෙන්නද ?නිට්ටාවට සුවයි...</t>
+          <t>monada ballo me dala thinne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,7 +505,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>අක්කේ ඉත්තෑවෝ දුවනවනේ ?පොඩ්ඩක් ලෙඩේ බලාගන්න ඇවිත් ඔහේ බෙහෙත් නැත්නම් එන්න දෙන්නම් ගුලියක් අබරලා ඔය ගතිය ඇරලා යයි...එතකොට ඔයා අවුරුදු 25 කියලා ඉන්න 50 වෙච්ච එකෙක් වද බැන්දේ ? අර්ශශ් නම් බෙහෙත් අර ගන්න නැත්නම් හෙට හෙණ ගේමක් දෙන්න වෙයි...ඒක තමයි කියන්නෙ අවුරුදු 25 වගේ පේණ වදුරොත් එක්ක හු$&amp;@ එපා කියන්නේ...මේ අක්කේ ගැට අන්නාසි තියනවා දෙන්නද ?නිට්ටාවට සුවයි...</t>
+          <t>මොනාද බල්ලෝ මේ දල තින්නේ</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>අනෙ උබ ඔය රටට වෙලා හැමනියන් . යකො ලන්කවට බනින අවජාතකයො</t>
+          <t>pissuda vesiye ubata</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -685,7 +685,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>අනෙ උබ ඔය රටට වෙලා හැමනියන් . යකො ලන්කවට බනින අවජාතකයො</t>
+          <t>පිස්සුද වෙසියේ උබට</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>උබෙ අමිිමාට..... වැඩක්නැ වෙසියෙ අපි පවු පුරෝගන.මෙිික මගෙ රට යකෝ.කරවල වෙල වෙල ඉදලා ් විදිගනිකාවක් වෙචිිච තෝ රටට කරන අපහසේ.දෙනකොට ඩබල්වෙයි</t>
+          <t>okata kiyanne mol amaruwa kiyala beheth onida</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5599,14 +5599,14 @@
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>උබෙ අමිිමාට..... වැඩක්නැ වෙසියෙ අපි පවු පුරෝගන.මෙිික මගෙ රට යකෝ.කරවල වෙල වෙල ඉදලා ් විදිගනිකාවක් වෙචිිච තෝ රටට කරන අපහසේ.දෙනකොට ඩබල්වෙයි</t>
+          <t>ඕකට කියන්නේ මෝල් අමාරුව කියල බෙහෙත් ඕනිද</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>උබෙ අම්මට හූකාපන් වෙසී</t>
+          <t>pissu hukanna…......muta enna denna hoda na</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -5617,14 +5617,14 @@
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>උබෙ අම්මට හූකාපන් වෙසී</t>
+          <t>පිස්සු හුකන්නමුට එන්න දෙන්න හොද න</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>උබෙඅමිමටහුකපන්පුකදිපන්</t>
+          <t>kochchara puka dunnath ubawa ganan ganne na un</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5635,7 +5635,7 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>උබෙඅමිමටහුකපන්පුකදිපන්</t>
+          <t>කොච්චර puka දුන්නත් උබව ගණන් ගන්නේ න උන්</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>එවන්නත් එපා හුත්තිගෙ ගෑනි තොපෙ medical side ඔච්චර දියුනු හින්දද ඩොකාලා ඉදන් මැරෙන්නෙ සුද්දොන්ට පුක දෙන්න ගිහින් ඉපදුන රටට බුරන වේසියක්. අනෙ හුකහන් තොවගෙ ගොං නැ මෙහෙ මිනිස්සු. ඔහෙ තරම් මෙහෙ දියුනු නැ එක තමයි මෙහෙම වැඩ පිලිවල්ක් රජයෙන් කරන්නෙ එව උබට අදාල නැනෙ එහෙනම් පඩුවෙ ඉදහන්.</t>
+          <t>pissuda huttiye thota ochcara gon marimongal katha kiyanne</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>එවන්නත් එපා හුත්තිගෙ ගෑනි තොපෙ medical side ඔච්චර දියුනු හින්දද ඩොකාලා ඉදන් මැරෙන්නෙ සුද්දොන්ට පුක දෙන්න ගිහින් ඉපදුන රටට බුරන වේසියක්. අනෙ හුකහන් තොවගෙ ගොං නැ මෙහෙ මිනිස්සු. ඔහෙ තරම් මෙහෙ දියුනු නැ එක තමයි මෙහෙම වැඩ පිලිවල්ක් රජයෙන් කරන්නෙ එව උබට අදාල නැනෙ එහෙනම් පඩුවෙ ඉදහන්.</t>
+          <t>පිස්සුද හුට්ටියේ තොට ඔච්චාර gon මරිමොන්ගල් katha කියන්නේ</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ඉතාලියට අල්ලලා 5 ක් හදාගත්තනම් තව දෙන්නෙක්වත් හදා ගනින්.</t>
+          <t>me gon baduwata pissu bn</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6733,7 +6733,7 @@
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>ඉතාලියට අල්ලලා 5 ක් හදාගත්තනම් තව දෙන්නෙක්වත් හදා ගනින්.</t>
+          <t>මේ gon බඩුවට පිස්සු බන්</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ඉතින් යකෝ අර ඇඳිරි නීතිය ඉවත් කරලා තියෙන වෙලාවට කඩවලින් බඩු අරගෙන ලොරිවල පටවාගෙන උඹගෙ පැත්තෙ මිනිස්සුන්ට බෙදපං කො. උඹලා සල්ලි කාරයොනේ උඹලට ඕවා කරන්න පුළුවන්නේ . ඒ වෙලාවට බයේ ගෙදර හැංගිලා බයේ හැංගිලා ඉන්නවා .අහිංසක මිනිස්සු තමයි ඒ මිනිස්සුන්ගෙ ජීවිත ගැන වත් හිතන්නැතුව වැඩ කරන්නේ ඒ මිනිස්සුන්ට තමයි කවද හරි corona හැදෙන්නේ තෝ මෙතන බොරුවට කතා කරනවා</t>
+          <t>palayan vesiye yanna</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7021,7 +7021,7 @@
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
-          <t>ඉතින් යකෝ අර ඇඳිරි නීතිය ඉවත් කරලා තියෙන වෙලාවට කඩවලින් බඩු අරගෙන ලොරිවල පටවාගෙන උඹගෙ පැත්තෙ මිනිස්සුන්ට බෙදපං කො. උඹලා සල්ලි කාරයොනේ උඹලට ඕවා කරන්න පුළුවන්නේ . ඒ වෙලාවට බයේ ගෙදර හැංගිලා බයේ හැංගිලා ඉන්නවා .අහිංසක මිනිස්සු තමයි ඒ මිනිස්සුන්ගෙ ජීවිත ගැන වත් හිතන්නැතුව වැඩ කරන්නේ ඒ මිනිස්සුන්ට තමයි කවද හරි corona හැදෙන්නේ තෝ මෙතන බොරුවට කතා කරනවා</t>
+          <t>පලයන් වෙසියේ යන්න</t>
         </is>
       </c>
     </row>
@@ -7532,7 +7532,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>උන්ට පණ නැති උනාට අපේ උන්ට තියෙනවා හොද බඩු.. ලංකාවෙ එකෙක් දත් ටික මැද්දා නම් මේ වගේ කට වැඩි වෙන් නෑ.. අම්මා වගේ උපන් බිමට ගරහන හැතිරියෝ මේ රටේ නැති එක ගැනම අපිට සතුටුයි . දන්නවනම් යවනවා වම්බටු ලෝඩ් එකක් අමාරු තැන්වල ගහගන්න කිය්ලා</t>
+          <t>pissu hukanni</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7543,7 +7543,7 @@
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>උන්ට පණ නැති උනාට අපේ උන්ට තියෙනවා හොද බඩු.. ලංකාවෙ එකෙක් දත් ටික මැද්දා නම් මේ වගේ කට වැඩි වෙන් නෑ.. අම්මා වගේ උපන් බිමට ගරහන හැතිරියෝ මේ රටේ නැති එක ගැනම අපිට සතුටුයි . දන්නවනම් යවනවා වම්බටු ලෝඩ් එකක් අමාරු තැන්වල ගහගන්න කිය්ලා</t>
+          <t>පිස්සු හුකන්නි</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ඌරන්ට දාව උපන් උන්...</t>
+          <t>ai bn paduwe inna bari ubalata puka nodi</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -8641,7 +8641,7 @@
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>ඌරන්ට දාව උපන් උන්...</t>
+          <t>ඊ බන් පාඩුවේ ඉන්න bari උබලට puka nodi</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ඔව් ඉතාලිටයේ උන්ට පුක දීපන් ඇයා ගෑනියේ එළ දෙනෙක් වුනේ</t>
+          <t>ew wesi ubatanm pissu</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -10279,7 +10279,7 @@
       <c r="C547" t="inlineStr"/>
       <c r="D547" t="inlineStr">
         <is>
-          <t>ඔව් ඉතාලිටයේ උන්ට පුක දීපන් ඇයා ගෑනියේ එළ දෙනෙක් වුනේ</t>
+          <t>ඒව වේසි උබටන්ම් පිස්සු</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>කට කොමඩ් එකක් වගේ .......</t>
+          <t>pissu hutti</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -10423,14 +10423,14 @@
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>කට කොමඩ් එකක් වගේ .......</t>
+          <t>පිස්සු හුට්ටි</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>කට නම් කට ලැට් කට ඈ නිදකින් එළදණ</t>
+          <t>me ganita mongal pissan kotuwata yawanna oni</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -10441,14 +10441,14 @@
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>කට නම් කට ලැට් කට ඈ නිදකින් එළදණ</t>
+          <t>මේ ගැනිට මොංගල් පිස්සන් කොටුවට යවන්න ඕනි</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>කට බලු පුක වගේ</t>
+          <t>ado hutto math oka baluwa….supiri bn</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -10459,7 +10459,7 @@
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>කට බලු පුක වගේ</t>
+          <t>ado හුට්ටෝ math oka බලුවසුපිරි බන්</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>කට වැසිකිලියක් වගේ</t>
+          <t>kawda me mal ponnaya</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -10567,14 +10567,14 @@
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr">
         <is>
-          <t>කට වැසිකිලියක් වගේ</t>
+          <t>කව්ද මේ mal පොන්නය</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>කට හොදයි රෙන්න</t>
+          <t>wadu ammata baninna hadanna epa</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -10585,7 +10585,7 @@
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>කට හොදයි රෙන්න</t>
+          <t>වඩු අම්මට බනින්න හදන්න එපා</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>කවුද මේ පතොලා බඩු ව</t>
+          <t>kawda me wesawi</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -10783,7 +10783,7 @@
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
-          <t>කවුද මේ පතොලා බඩු ව</t>
+          <t>කව්ද මේ වෙසවී</t>
         </is>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>කැරි බඩුව</t>
+          <t>puka nodi paduwe hitu</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -10981,7 +10981,7 @@
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr">
         <is>
-          <t>කැරි බඩුව</t>
+          <t>puka nodi පාඩුවේ හිටු</t>
         </is>
       </c>
     </row>
@@ -11276,7 +11276,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ගණිකාවක්</t>
+          <t>pissu hukannek uba</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -11287,14 +11287,14 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>ගණිකාවක්</t>
+          <t>පිස්සු හුකන්නෙක් උබ</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t xml:space="preserve">ගණිකාවක් කෑ ගසයි බුද්දිමතුන් නිහඩව සිටි </t>
+          <t xml:space="preserve">pissu ballek wage kaghanna epa </t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -11305,14 +11305,14 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>ගණිකාවක් කෑ ගසයි බුද්දිමතුන් නිහඩව සිටි</t>
+          <t>පිස්සු බල්ලෙක් wage කඝන්න එපා</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ගනිකාව</t>
+          <t>muta hodatama pissu….pissu balli</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -11323,7 +11323,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>ගනිකාව</t>
+          <t>muta හොදටම පිස්සුපිස්සු balli</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>තවුද බන් මෙි වේසා බඩුව</t>
+          <t>wesiye kaaa nogha hitu</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
         <is>
-          <t>තවුද බන් මෙි වේසා බඩුව</t>
+          <t>වෙසියේ කාඅ නොගහ හිටු</t>
         </is>
       </c>
     </row>
@@ -16838,7 +16838,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>තොපි එන්නත්ත එපා වේසියෙ. තෝ සිංහල ද සුද්දන්ට පුක දීලා පුක දීලා තොපි පදිංචි ලංකාවත් මතක නෑ පර බැල්ලිට</t>
+          <t>pala yan patta  paduru wesi</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -16849,7 +16849,7 @@
       <c r="C912" t="inlineStr"/>
       <c r="D912" t="inlineStr">
         <is>
-          <t>තොපි එන්නත්ත එපා වේසියෙ. තෝ සිංහල ද සුද්දන්ට පුක දීලා පුක දීලා තොපි පදිංචි ලංකාවත් මතක නෑ පර බැල්ලිට</t>
+          <t>පල yan patta පැදුරු වේසි</t>
         </is>
       </c>
     </row>
@@ -17126,7 +17126,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>තොපි වගේ ගොන් වේසියො මේ උතුම් රටට එන්න එපා ,තො ජාතක කරපු මහ එවුන් දෙන්නට හෙනම ගහපන්,</t>
+          <t>gon gahak mekinm</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -17137,7 +17137,7 @@
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
-          <t>තොපි වගේ ගොන් වේසියො මේ උතුම් රටට එන්න එපා ,තො ජාතක කරපු මහ එවුන් දෙන්නට හෙනම ගහපන්,</t>
+          <t>gon ගහක් මෙකින්ම්</t>
         </is>
       </c>
     </row>
@@ -17900,7 +17900,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>තෝ වගේ වේසකමේ ගියපු බැල්ලියෝ තමයි ලංකාව විනාස කරන්නෙ.අපි අපේ රටගැන බලාගන්නම්</t>
+          <t>appo hutti moona dakkama penawa malu ganiyak kiyala</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="C971" t="inlineStr"/>
       <c r="D971" t="inlineStr">
         <is>
-          <t>තෝ වගේ වේසකමේ ගියපු බැල්ලියෝ තමයි ලංකාව විනාස කරන්නෙ.අපි අපේ රටගැන බලාගන්නම්</t>
+          <t>අප්පෝ හුට්ටි මූණ දැක්කම පේනවා මලු ගනියක් කියල</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>දාර බඩු කොහේ හිටියත් සැප තමයි</t>
+          <t>mewage gon baduwak dakkami</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -18145,14 +18145,14 @@
       <c r="C984" t="inlineStr"/>
       <c r="D984" t="inlineStr">
         <is>
-          <t>දාර බඩු කොහේ හිටියත් සැප තමයි</t>
+          <t>මේවගේ gon බඩුවක් දක්කමි</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>දාර බඩුවක්</t>
+          <t>pissuda huththo</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -18163,7 +18163,7 @@
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr">
         <is>
-          <t>දාර බඩුවක්</t>
+          <t>පිස්සුද හුත්තෝ</t>
         </is>
       </c>
     </row>
@@ -24190,11 +24190,7 @@
           <t>offensive</t>
         </is>
       </c>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
           <t>පකද කැරි ගොනො අපිට කියන්නෙ..</t>
@@ -31758,6 +31754,330 @@
       <c r="D1740" t="inlineStr">
         <is>
           <t>මේ කාලකන්නිය මොනවාද ඉගනගෙන තියෙන්න .අමුම අමු ගොන් රජෙක්.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>අනේ උබ මැරියන් හුත්ති</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr"/>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>අනේ උබ මැරියන් හුත්ති</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>අනේ දෙයියනේ මැරියන් ඔකිව</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr"/>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>අනේ දෙයියනේ මැරියන් ඔකිව</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>ඉතිං මැරියන්... අපිට මොකෝ</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr"/>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>ඉතිං මැරියන්... අපිට මොකෝ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>ඉතින් අපිට මොනාද කියන්නේ මැරියන්</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr"/>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>ඉතින් අපිට මොනාද කියන්නේ මැරියන්</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඉතින් ඉතාලියට වෙලා මැරියන්කෝ ඇන්ටි </t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr"/>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>ඉතින් ඉතාලියට වෙලා මැරියන්කෝ ඇන්ටි</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඉතින් උබ ඔහෙට වෙලා මැරියන් </t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr"/>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>ඉතින් උබ ඔහෙට වෙලා මැරියන්</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>ඉතින් ඔහෙම මැරියන්.අපි ට පාඩු වෙයිද බලන්න.උබෙ මිනිය මෙහෙට ආවෙ නැතුවට කමක් නෑ.</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr"/>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>ඉතින් ඔහෙම මැරියන්.අපි ට පාඩු වෙයිද බලන්න.උබෙ මිනිය මෙහෙට ආවෙ නැතුවට කමක් නෑ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඉතින් තව කවර කතාද නේද බන්...මැරිලා පල අපිට පාන්ද </t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr"/>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>ඉතින් තව කවර කතාද නේද බන්...මැරිලා පල අපිට පාන්ද</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>ඉතින් මැරියන්කො කිරිමැටි හුත්ති</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr"/>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>ඉතින් මැරියන්කො කිරිමැටි හුත්ති</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>එන්න එපා තෝ ඔහේම මැරියන් බැල්ලි</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr"/>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>එන්න එපා තෝ ඔහේම මැරියන් බැල්ලි</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>කට වහපන් ගෑනියේ උබ මැරියන්</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr"/>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>කට වහපන් ගෑනියේ උබ මැරියන්</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>තමන් ඉපදුන රටර ගරහන එවිවො තොපි ඔහෙටම වෙලා මැරියන් හු#ති.</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr"/>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>තමන් ඉපදුන රටර ගරහන එවිවො තොපි ඔහෙටම වෙලා මැරියන් හු#ති.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>තොත් මැරියන් හුත්ති</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr"/>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>තොත් මැරියන් හුත්ති</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඉතින් උඹ ඔහේ වැලලීයන් අපිට මොකෝ </t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr"/>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>ඉතින් උඹ ඔහේ වැලලීයන් අපිට මොකෝ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>ඉන්න බැරිනම් වැලලියන් ගොන් නෑම්බි</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr"/>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>ඉන්න බැරිනම් වැලලියන් ගොන් නෑම්බි</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>කවුද මේ පතොලා බඩු ව</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr"/>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>කවුද මේ පතොලා බඩු ව</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>දාර බඩුවක්</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr"/>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>දාර බඩුවක්</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>ගනිකාව</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr"/>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>ගනිකාව</t>
         </is>
       </c>
     </row>
